--- a/model/data/template.xlsx
+++ b/model/data/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/tRBS/open source/trbs/model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9464D186-5A43-3F46-A14B-655CB656BEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362A9D75-DB44-6D47-B828-97869F019473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="540" windowWidth="27600" windowHeight="18800" activeTab="8" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="3520" yWindow="540" windowWidth="27600" windowHeight="18800" activeTab="1" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>configuration</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>theme</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>maximum</t>
   </si>
   <si>
     <t>monetary</t>
@@ -532,16 +526,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F27D205-AE79-E542-BA48-2D4707481E26}">
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -568,12 +564,6 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -597,10 +587,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -626,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -652,7 +642,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -684,28 +674,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -728,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82690612-F6E7-CC4A-A524-5770D0407DD2}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -771,10 +761,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
